--- a/java.xlsx
+++ b/java.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="192">
   <si>
     <t>1.Java7～11更新内容</t>
   </si>
@@ -184,7 +184,7 @@
     <t>java8</t>
   </si>
   <si>
-    <t>1.lambada表达式</t>
+    <t>1.Lambda表达式</t>
   </si>
   <si>
     <t>(x, y) -&gt; x+y</t>
@@ -373,7 +373,7 @@
     <t>Java8前日期类的缺陷</t>
   </si>
   <si>
-    <t>java.util.Date 这个类线程不安全，而且所有日期类都是可变的</t>
+    <t>java.util.Date 线程不安全，而且所有日期类都是可变的</t>
   </si>
   <si>
     <t>默认的开始日期从1900年，不支持国际化，不提供时区支持</t>
@@ -433,10 +433,58 @@
     <t>"10-10"</t>
   </si>
   <si>
-    <t>在连接数据库时，可能会出现无法直接与数据库类型直接转换，所以推荐使用Spring Data API或Mybatis</t>
+    <t>在连接数据库时，可能会出现与数据库类型直接转换，所以推荐使用Spring Data API或Mybatis</t>
   </si>
   <si>
     <t>7.类型推断增强</t>
+  </si>
+  <si>
+    <t>参考http://openjdk.java.net/jeps/101</t>
+  </si>
+  <si>
+    <t>(1)可通过调用方法的上下文来推断类型参数的目标类型</t>
+  </si>
+  <si>
+    <t>参考上文Lambda表达式声明</t>
+  </si>
+  <si>
+    <t>(2)可在方法调用链中，将推断得到的类型参数传递到最后一个方法</t>
+  </si>
+  <si>
+    <t>目前无法实现</t>
+  </si>
+  <si>
+    <t>当信息不足以推断类型时，报编译错误</t>
+  </si>
+  <si>
+    <t>class List&lt;E&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static &lt;Z&gt; List&lt;Z&gt; nil() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static &lt;Z&gt; List&lt;Z&gt; cons(Z head, List&lt;Z&gt; tail) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return tail;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    E head() {</t>
+  </si>
+  <si>
+    <t>List.cons(42, List.nil());</t>
+  </si>
+  <si>
+    <t>//特性1, 成功</t>
+  </si>
+  <si>
+    <t>String s = List.nil().head();</t>
+  </si>
+  <si>
+    <t>//特性2, 编译错误</t>
   </si>
   <si>
     <t>8.Stream API</t>
@@ -556,9 +604,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -588,6 +636,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -595,31 +651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +661,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,16 +683,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,29 +727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -702,26 +735,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -734,187 +782,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,17 +985,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +998,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -991,13 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,159 +1073,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1256,8 +1304,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -1298,8 +1346,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1680,10 +1728,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="19"/>
@@ -1691,6 +1739,7 @@
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="4.16666666666667" customWidth="1"/>
     <col min="3" max="3" width="4.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2176,7 +2225,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" customFormat="1"/>
     <row r="134" customFormat="1" spans="4:4">
       <c r="D134" t="s">
         <v>86</v>
@@ -2202,7 +2250,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" customFormat="1"/>
     <row r="140" customFormat="1" spans="4:4">
       <c r="D140" t="s">
         <v>92</v>
@@ -2253,7 +2300,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" customFormat="1"/>
     <row r="151" customFormat="1" spans="4:4">
       <c r="D151" t="s">
         <v>98</v>
@@ -2284,7 +2330,6 @@
         <v>103</v>
       </c>
     </row>
-    <row r="157" customFormat="1"/>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
         <v>104</v>
@@ -2305,7 +2350,6 @@
         <v>107</v>
       </c>
     </row>
-    <row r="162" customFormat="1"/>
     <row r="163" customFormat="1" spans="4:4">
       <c r="D163" t="s">
         <v>108</v>
@@ -2326,7 +2370,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" customFormat="1"/>
     <row r="168" customFormat="1" spans="4:4">
       <c r="D168" t="s">
         <v>110</v>
@@ -2449,6 +2492,112 @@
     <row r="191" spans="4:4">
       <c r="D191" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="4:8">
+      <c r="D214" t="s">
+        <v>151</v>
+      </c>
+      <c r="H214" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="215" spans="4:8">
+      <c r="D215" t="s">
+        <v>153</v>
+      </c>
+      <c r="H215" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2464,8 +2613,8 @@
   <sheetPr/>
   <dimension ref="B15:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="19" outlineLevelCol="3"/>
@@ -2477,65 +2626,65 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2549,7 +2698,7 @@
   <sheetPr/>
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -2567,22 +2716,22 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="3:3">
@@ -2592,12 +2741,12 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="3:3">
@@ -2607,12 +2756,12 @@
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -2632,22 +2781,22 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2657,27 +2806,27 @@
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -2687,62 +2836,62 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="大纲" sheetId="2" r:id="rId1"/>
     <sheet name="Java7~11" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="函数式编程" sheetId="3" r:id="rId4"/>
+    <sheet name="函数式编程" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Java7~11'!$A$1:$M$191</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Java7~11'!$A$1:$M$261</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="210">
   <si>
     <t>1.Java7～11更新内容</t>
   </si>
@@ -490,40 +489,91 @@
     <t>8.Stream API</t>
   </si>
   <si>
-    <t>9.java.util 包更新</t>
-  </si>
-  <si>
-    <t>10.java.util.concurrent 包更新</t>
-  </si>
-  <si>
-    <t>java9</t>
-  </si>
-  <si>
-    <t>1.properties文件支持UTF-8编码</t>
-  </si>
-  <si>
-    <t>Java8以前（包括Java8）仅支持ISO-8859-1</t>
-  </si>
-  <si>
-    <t>2.java模块系统</t>
-  </si>
-  <si>
-    <t>3.java shell</t>
-  </si>
-  <si>
-    <t>命令行交互的</t>
-  </si>
-  <si>
-    <t>4.支持私有接口方法</t>
-  </si>
-  <si>
-    <t>java10</t>
-  </si>
-  <si>
-    <t>java11</t>
-  </si>
-  <si>
-    <t>支持至2026年9月</t>
+    <t xml:space="preserve">    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Integer[] arr = {9, 8, 7, 6, 5, 4, 3, 2, 1, 0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //map: 将流中的元素映射成另一个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //collect(toList()): 将流转换为List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;Integer&gt; list = Stream.of(arr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .map(ele -&gt; ele * 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .collect(Collectors.toList());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //forEach: 遍历流中元素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //List是有序的，因此生成的Stream也是有序的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //流中元素的处理顺序称为出现顺序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //有序数据源产生的流，出现顺序是数据源顺序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //无序数据源产生的流，出现顺序不固定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //Stream在不经过手动排序时，总保持出现顺序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        list.stream()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .forEach(System.out::print);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //filter: 过滤出符合条件的元素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .filter(ele -&gt; ele &gt; 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;List&lt;Integer&gt;&gt; lists = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        lists.add(list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        lists.add(List.of(arr));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //flatMap: 将多个流合并成一个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        lists.stream()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .flatMap(ele -&gt; ele.stream())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Optional </t>
+  </si>
+  <si>
+    <t>包装一个可能为null的值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Object obj = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Optional.ofNullable(obj).orElseGet(Object::new);</t>
   </si>
   <si>
     <t>测试用类(共用)</t>
@@ -596,6 +646,9 @@
   </si>
   <si>
     <t>等效函数的第一个参数应是方法所在类或其子类，该参数是方法的实际调用者</t>
+  </si>
+  <si>
+    <t>Lambda</t>
   </si>
 </sst>
 </file>
@@ -603,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -630,7 +683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,8 +697,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,14 +739,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,59 +759,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,9 +782,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +811,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -779,6 +832,174 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -788,181 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,36 +1032,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1059,6 +1083,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1078,148 +1131,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1728,10 +1781,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="19"/>
@@ -2600,6 +2653,186 @@
         <v>154</v>
       </c>
     </row>
+    <row r="217" spans="3:3">
+      <c r="C217" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4">
+      <c r="D246" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="600"/>
@@ -2611,95 +2844,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B15:D43"/>
+  <dimension ref="A2:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="19" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="19" outlineLevelCol="3"/>
@@ -2716,22 +2864,22 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="3:3">
@@ -2741,12 +2889,12 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="3:3">
@@ -2756,12 +2904,12 @@
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -2781,22 +2929,22 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2806,27 +2954,27 @@
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -2836,66 +2984,72 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10870" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="大纲" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="243">
   <si>
     <t>1.Java7～11更新内容</t>
   </si>
@@ -648,7 +648,106 @@
     <t>等效函数的第一个参数应是方法所在类或其子类，该参数是方法的实际调用者</t>
   </si>
   <si>
-    <t>Lambda</t>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>获取专辑列表中所有时间大于一分钟的曲目</t>
+  </si>
+  <si>
+    <t>public Set&lt;String&gt; findLongTracks(List&lt;Album&gt; albums) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set&lt;String&gt; trackNames = new HashSet&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(Album album : albums) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for(Track track : album.getTrackList()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (track.getLength() &gt; 60) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                String name = track.getName();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                trackNames.add(name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return trackNames;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    retrun albums.stream()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .flatMap(ablum -&gt; album.getTrackList().stream())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .filter(track -&gt; track.getLength() &gt; 60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .map(track -&gt; track.getName())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <t>通用操作reduce()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int count = Stream.of(1, 2, 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .reduce(0, (acc, ele) -&gt; acc + ele);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;Integer&gt; intList = Stream.of(1, 2, 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .reduce(new ArrayList&lt;Integer&gt;(), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    (result, ele) -&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if (ele &lt;= 2) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            result.add(ele);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        return result;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    (a, b) -&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        a.addAll(b);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        System.out.println("param 3");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        return a;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                );</t>
   </si>
 </sst>
 </file>
@@ -657,9 +756,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -683,14 +782,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -706,52 +903,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -759,66 +918,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -835,7 +934,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,25 +1048,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,31 +1078,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,108 +1115,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,8 +1131,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,17 +1182,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,23 +1220,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,148 +1230,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,7 +1882,7 @@
   <sheetPr/>
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A243" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A243" workbookViewId="0">
       <selection activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
@@ -2844,10 +2943,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D45"/>
+  <dimension ref="A2:D86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="19" outlineLevelCol="3"/>
@@ -3042,9 +3141,195 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" customFormat="1" spans="1:1">
       <c r="A45" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="2:2">
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1" spans="2:2">
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="2:2">
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="2:2">
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="2:2">
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="2:2">
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="2:2">
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="2:2">
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="2:2">
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="2:2">
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="2:2">
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="2:2">
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="2:2">
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
